--- a/Team-Data/2013-14/3-25-2013-14.xlsx
+++ b/Team-Data/2013-14/3-25-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -783,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
         <v>26</v>
@@ -947,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -977,7 +1044,7 @@
         <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1144,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
@@ -1162,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
         <v>7</v>
@@ -1177,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1359,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB5" t="n">
         <v>25</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
         <v>44</v>
       </c>
       <c r="G7" t="n">
-        <v>0.389</v>
+        <v>0.38</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
@@ -1594,40 +1661,40 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O7" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P7" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R7" t="n">
         <v>12.2</v>
       </c>
       <c r="S7" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
         <v>44.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V7" t="n">
         <v>14.5</v>
@@ -1636,7 +1703,7 @@
         <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y7" t="n">
         <v>5.9</v>
@@ -1651,7 +1718,7 @@
         <v>97.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1666,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1675,7 +1742,7 @@
         <v>8</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
@@ -1687,10 +1754,10 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>20</v>
@@ -1705,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1723,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.597</v>
+        <v>0.592</v>
       </c>
       <c r="H8" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M8" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="N8" t="n">
         <v>0.382</v>
       </c>
       <c r="O8" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.798</v>
       </c>
       <c r="R8" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U8" t="n">
         <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>4.2</v>
@@ -1827,13 +1894,13 @@
         <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>105</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1848,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1863,10 +1930,10 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1905,7 +1972,7 @@
         <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>5</v>
@@ -2248,7 +2315,7 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>8</v>
@@ -2406,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2424,13 +2491,13 @@
         <v>18</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2451,7 +2518,7 @@
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>6</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>3</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
@@ -2806,7 +2873,7 @@
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.343</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J15" t="n">
         <v>84.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L15" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M15" t="n">
         <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.386</v>
+        <v>0.382</v>
       </c>
       <c r="O15" t="n">
         <v>17</v>
       </c>
       <c r="P15" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
         <v>9.1</v>
@@ -3080,19 +3147,19 @@
         <v>32.2</v>
       </c>
       <c r="T15" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
         <v>4.7</v>
@@ -3104,13 +3171,13 @@
         <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.3</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3125,28 +3192,28 @@
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3170,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3179,7 +3246,7 @@
         <v>9</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>1.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
@@ -3304,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3349,7 +3416,7 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>4.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>11</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" t="n">
-        <v>0.408</v>
+        <v>0.414</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J21" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.447</v>
@@ -4151,16 +4218,16 @@
         <v>9.1</v>
       </c>
       <c r="M21" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O21" t="n">
         <v>15.3</v>
       </c>
       <c r="P21" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q21" t="n">
         <v>0.755</v>
@@ -4169,16 +4236,16 @@
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T21" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W21" t="n">
         <v>7.6</v>
@@ -4190,7 +4257,7 @@
         <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA21" t="n">
         <v>19.6</v>
@@ -4199,10 +4266,10 @@
         <v>98.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.6</v>
+        <v>-1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4214,7 +4281,7 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4223,10 +4290,10 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM21" t="n">
         <v>5</v>
@@ -4238,7 +4305,7 @@
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
@@ -4271,10 +4338,10 @@
         <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -4306,40 +4373,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
         <v>52</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.732</v>
+        <v>0.743</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.471</v>
       </c>
       <c r="L22" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N22" t="n">
         <v>0.363</v>
       </c>
       <c r="O22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
         <v>24.8</v>
@@ -4354,13 +4421,13 @@
         <v>34.3</v>
       </c>
       <c r="T22" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>8.300000000000001</v>
@@ -4372,19 +4439,19 @@
         <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.2</v>
+        <v>106</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,16 +4466,16 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4420,7 +4487,7 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4429,10 +4496,10 @@
         <v>17</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4453,7 +4520,7 @@
         <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
         <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.278</v>
+        <v>0.268</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4521,22 +4588,22 @@
         <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P23" t="n">
         <v>20.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S23" t="n">
         <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
         <v>21</v>
@@ -4545,7 +4612,7 @@
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
@@ -4563,7 +4630,7 @@
         <v>96.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4623,7 +4690,7 @@
         <v>12</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4775,7 +4842,7 @@
         <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
@@ -4793,7 +4860,7 @@
         <v>8</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
@@ -4820,7 +4887,7 @@
         <v>13</v>
       </c>
       <c r="BB24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4954,7 +5021,7 @@
         <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
@@ -4966,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
         <v>45</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.625</v>
+        <v>0.634</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J26" t="n">
         <v>87.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
         <v>9.5</v>
@@ -5064,13 +5131,13 @@
         <v>25.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P26" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q26" t="n">
         <v>0.82</v>
@@ -5079,16 +5146,16 @@
         <v>12.6</v>
       </c>
       <c r="S26" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T26" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="U26" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V26" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
         <v>5.5</v>
@@ -5103,13 +5170,13 @@
         <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.9</v>
+        <v>107.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -5127,13 +5194,13 @@
         <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5181,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,19 +5555,19 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5512,7 +5579,7 @@
         <v>27</v>
       </c>
       <c r="AP28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="n">
         <v>39</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5598,43 +5665,43 @@
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.443</v>
       </c>
       <c r="L29" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P29" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T29" t="n">
         <v>43.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W29" t="n">
         <v>7.1</v>
@@ -5643,7 +5710,7 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z29" t="n">
         <v>23.1</v>
@@ -5652,13 +5719,13 @@
         <v>22.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5667,7 +5734,7 @@
         <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5682,7 +5749,7 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5697,13 +5764,13 @@
         <v>7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT29" t="n">
         <v>15</v>
@@ -5712,10 +5779,10 @@
         <v>17</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>-6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6067,7 +6134,7 @@
         <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-25-2013-14</t>
+          <t>2014-03-25</t>
         </is>
       </c>
     </row>
